--- a/OpenLap/SN3_90A.xlsx
+++ b/OpenLap/SN3_90A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Westo\OneDrive\Documents\GitHub\FEBSim\OpenLap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0C4B00-D7CB-4D1C-BD05-EA4BA1B56381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B02DD9-DA36-4706-A7C1-C911581ABA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1161,7 +1161,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="8">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>38</v>
@@ -1176,7 +1176,7 @@
         <v>74</v>
       </c>
       <c r="C9" s="3">
-        <v>-1.2</v>
+        <v>-1.33</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>38</v>
@@ -1217,7 +1217,8 @@
         <v>72</v>
       </c>
       <c r="C12" s="3">
-        <v>47</v>
+        <f>100-56.3</f>
+        <v>43.7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -1230,7 +1231,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
@@ -1803,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
